--- a/julia/RFFO/all_instances_result_RFFO_Zt.xlsx
+++ b/julia/RFFO/all_instances_result_RFFO_Zt.xlsx
@@ -503,7 +503,7 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.0029</v>
+        <v>0.0033</v>
       </c>
       <c r="E2">
         <v>15460.0</v>
@@ -512,10 +512,10 @@
         <v>0.0</v>
       </c>
       <c r="G2">
-        <v>0.0039</v>
+        <v>0.0035</v>
       </c>
       <c r="H2">
-        <v>0.0068</v>
+        <v>0.0068000000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -529,7 +529,7 @@
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.1332</v>
+        <v>0.1659</v>
       </c>
       <c r="E3">
         <v>20440.0</v>
@@ -538,10 +538,10 @@
         <v>0.0</v>
       </c>
       <c r="G3">
-        <v>0.033</v>
+        <v>0.0392</v>
       </c>
       <c r="H3">
-        <v>0.16620000000000001</v>
+        <v>0.2051</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -555,7 +555,7 @@
         <v>0.0</v>
       </c>
       <c r="D4">
-        <v>0.0069</v>
+        <v>0.0104</v>
       </c>
       <c r="E4">
         <v>19552.0</v>
@@ -564,10 +564,10 @@
         <v>0.0</v>
       </c>
       <c r="G4">
-        <v>0.0059</v>
+        <v>0.0117</v>
       </c>
       <c r="H4">
-        <v>0.012799999999999999</v>
+        <v>0.0221</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -581,7 +581,7 @@
         <v>0.0</v>
       </c>
       <c r="D5">
-        <v>0.0122</v>
+        <v>0.0074</v>
       </c>
       <c r="E5">
         <v>18307.0</v>
@@ -590,10 +590,10 @@
         <v>0.0</v>
       </c>
       <c r="G5">
-        <v>0.0065</v>
+        <v>0.0076</v>
       </c>
       <c r="H5">
-        <v>0.0187</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -607,7 +607,7 @@
         <v>0.25</v>
       </c>
       <c r="D6">
-        <v>0.0156</v>
+        <v>0.0129</v>
       </c>
       <c r="E6">
         <v>20538.4</v>
@@ -616,10 +616,10 @@
         <v>0.0</v>
       </c>
       <c r="G6">
-        <v>0.0203</v>
+        <v>0.0218</v>
       </c>
       <c r="H6">
-        <v>0.0359</v>
+        <v>0.0347</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -633,7 +633,7 @@
         <v>0.0</v>
       </c>
       <c r="D7">
-        <v>0.0067</v>
+        <v>0.0057</v>
       </c>
       <c r="E7">
         <v>17449.0</v>
@@ -642,10 +642,10 @@
         <v>0.0</v>
       </c>
       <c r="G7">
-        <v>0.0047</v>
+        <v>0.0039</v>
       </c>
       <c r="H7">
-        <v>0.0114</v>
+        <v>0.009600000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -659,7 +659,7 @@
         <v>0.0</v>
       </c>
       <c r="D8">
-        <v>0.0115</v>
+        <v>0.0132</v>
       </c>
       <c r="E8">
         <v>18948.48</v>
@@ -668,10 +668,10 @@
         <v>0.0</v>
       </c>
       <c r="G8">
-        <v>0.0114</v>
+        <v>0.0152</v>
       </c>
       <c r="H8">
-        <v>0.0229</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -685,7 +685,7 @@
         <v>0.0</v>
       </c>
       <c r="D9">
-        <v>0.0085</v>
+        <v>0.0115</v>
       </c>
       <c r="E9">
         <v>21885.0</v>
@@ -694,10 +694,10 @@
         <v>0.0</v>
       </c>
       <c r="G9">
-        <v>0.0065</v>
+        <v>0.0069</v>
       </c>
       <c r="H9">
-        <v>0.015</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -711,7 +711,7 @@
         <v>0.72</v>
       </c>
       <c r="D10">
-        <v>0.0307</v>
+        <v>0.0531</v>
       </c>
       <c r="E10">
         <v>22656.4</v>
@@ -720,10 +720,10 @@
         <v>0.0</v>
       </c>
       <c r="G10">
-        <v>0.0308</v>
+        <v>0.0494</v>
       </c>
       <c r="H10">
-        <v>0.0615</v>
+        <v>0.10250000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -737,7 +737,7 @@
         <v>0.84</v>
       </c>
       <c r="D11">
-        <v>0.0242</v>
+        <v>0.0146</v>
       </c>
       <c r="E11">
         <v>19269.88</v>
@@ -746,10 +746,10 @@
         <v>0.0</v>
       </c>
       <c r="G11">
-        <v>0.023</v>
+        <v>0.0465</v>
       </c>
       <c r="H11">
-        <v>0.0472</v>
+        <v>0.0611</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -763,7 +763,7 @@
         <v>0.0</v>
       </c>
       <c r="D12">
-        <v>0.1918</v>
+        <v>0.2469</v>
       </c>
       <c r="E12">
         <v>34436.85</v>
@@ -772,10 +772,10 @@
         <v>0.0</v>
       </c>
       <c r="G12">
-        <v>0.1322</v>
+        <v>0.1303</v>
       </c>
       <c r="H12">
-        <v>0.324</v>
+        <v>0.3772</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -789,7 +789,7 @@
         <v>0.11</v>
       </c>
       <c r="D13">
-        <v>0.2574</v>
+        <v>0.3301</v>
       </c>
       <c r="E13">
         <v>38300.91</v>
@@ -798,10 +798,10 @@
         <v>0.11</v>
       </c>
       <c r="G13">
-        <v>0.2865</v>
+        <v>0.5496</v>
       </c>
       <c r="H13">
-        <v>0.5439</v>
+        <v>0.8796999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -815,7 +815,7 @@
         <v>0.0</v>
       </c>
       <c r="D14">
-        <v>0.1945</v>
+        <v>0.4078</v>
       </c>
       <c r="E14">
         <v>41255.23</v>
@@ -824,10 +824,10 @@
         <v>0.0</v>
       </c>
       <c r="G14">
-        <v>0.1247</v>
+        <v>0.1667</v>
       </c>
       <c r="H14">
-        <v>0.31920000000000004</v>
+        <v>0.5745</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -841,7 +841,7 @@
         <v>0.0</v>
       </c>
       <c r="D15">
-        <v>0.1033</v>
+        <v>0.1974</v>
       </c>
       <c r="E15">
         <v>35847.0</v>
@@ -850,10 +850,10 @@
         <v>0.0</v>
       </c>
       <c r="G15">
-        <v>0.0841</v>
+        <v>0.0604</v>
       </c>
       <c r="H15">
-        <v>0.1874</v>
+        <v>0.2578</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -867,7 +867,7 @@
         <v>0.0</v>
       </c>
       <c r="D16">
-        <v>0.1574</v>
+        <v>0.328</v>
       </c>
       <c r="E16">
         <v>39499.0</v>
@@ -876,10 +876,10 @@
         <v>0.0</v>
       </c>
       <c r="G16">
-        <v>0.1458</v>
+        <v>0.2637</v>
       </c>
       <c r="H16">
-        <v>0.3032</v>
+        <v>0.5917</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -893,7 +893,7 @@
         <v>0.0</v>
       </c>
       <c r="D17">
-        <v>0.2129</v>
+        <v>0.467</v>
       </c>
       <c r="E17">
         <v>37237.66</v>
@@ -902,10 +902,10 @@
         <v>0.0</v>
       </c>
       <c r="G17">
-        <v>0.2477</v>
+        <v>0.4406</v>
       </c>
       <c r="H17">
-        <v>0.4606</v>
+        <v>0.9076</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -913,13 +913,13 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>36087.56</v>
+        <v>36141.0</v>
       </c>
       <c r="C18">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
       <c r="D18">
-        <v>0.2275</v>
+        <v>0.5766</v>
       </c>
       <c r="E18">
         <v>36087.56</v>
@@ -928,10 +928,10 @@
         <v>0.0</v>
       </c>
       <c r="G18">
-        <v>0.2663</v>
+        <v>0.3533</v>
       </c>
       <c r="H18">
-        <v>0.4938</v>
+        <v>0.9299</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -945,7 +945,7 @@
         <v>0.0</v>
       </c>
       <c r="D19">
-        <v>0.3017</v>
+        <v>0.5435</v>
       </c>
       <c r="E19">
         <v>35852.42</v>
@@ -954,10 +954,10 @@
         <v>0.0</v>
       </c>
       <c r="G19">
-        <v>0.2521</v>
+        <v>0.3699</v>
       </c>
       <c r="H19">
-        <v>0.5538000000000001</v>
+        <v>0.9134</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -971,7 +971,7 @@
         <v>0.0</v>
       </c>
       <c r="D20">
-        <v>0.1905</v>
+        <v>0.3781</v>
       </c>
       <c r="E20">
         <v>36894.1</v>
@@ -980,10 +980,10 @@
         <v>0.0</v>
       </c>
       <c r="G20">
-        <v>0.1594</v>
+        <v>0.2684</v>
       </c>
       <c r="H20">
-        <v>0.3499</v>
+        <v>0.6465000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -997,7 +997,7 @@
         <v>0.0</v>
       </c>
       <c r="D21">
-        <v>0.1969</v>
+        <v>0.3797</v>
       </c>
       <c r="E21">
         <v>41932.44</v>
@@ -1006,10 +1006,10 @@
         <v>0.0</v>
       </c>
       <c r="G21">
-        <v>0.1744</v>
+        <v>0.2472</v>
       </c>
       <c r="H21">
-        <v>0.37129999999999996</v>
+        <v>0.6269</v>
       </c>
     </row>
   </sheetData>
